--- a/results/I3_N5_M3_T45_C100_DepLowerLeft_s4_mean_res.xlsx
+++ b/results/I3_N5_M3_T45_C100_DepLowerLeft_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>878.6181981698055</v>
+        <v>455.8781981698167</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6670000553131104</v>
+        <v>0.5430002212524414</v>
       </c>
     </row>
     <row r="5">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.318900601578257</v>
+        <v>7.80544681616626</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.318900601578257</v>
+        <v>7.80544681616626</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>311.3799999999889</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>521.3599999999999</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -885,7 +885,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>40.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -893,7 +893,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>35.57860145188133</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8.926455063461646</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -909,7 +909,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>13.38404826804759</v>
+        <v>37.19455318383374</v>
       </c>
     </row>
     <row r="7">
@@ -987,10 +987,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>103.8560000000001</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>113.2400000000007</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="5">
@@ -1076,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>46.78900000000147</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6">
@@ -1087,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>48.11200000000007</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="7">
@@ -1098,7 +1098,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>114.0419999999984</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="8">
@@ -1109,7 +1109,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>103.8559999999998</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="9">
@@ -1120,7 +1120,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>113.2400000000007</v>
+        <v>100.4</v>
       </c>
     </row>
     <row r="10">
@@ -1131,7 +1131,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>114.0419999999984</v>
+        <v>66.40000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>3.855999999999753</v>
+        <v>25.6</v>
       </c>
     </row>
     <row r="3">
@@ -1189,7 +1189,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>13.24000000000069</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="4">
@@ -1200,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>14.04199999999844</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1258,7 +1258,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>22.244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1269,7 +1269,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>9.459</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
@@ -1280,7 +1280,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>20.433</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1305,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1332,7 +1332,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -1343,23 +1343,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>5</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
         <v>1</v>
       </c>
     </row>
